--- a/inputdata/NCB_530.xlsx
+++ b/inputdata/NCB_530.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="NCB_530" sheetId="18" r:id="rId1"/>
-    <sheet name="Name" sheetId="30" r:id="rId2"/>
+    <sheet name="NAME" sheetId="30" r:id="rId2"/>
     <sheet name="PAYMENT_METHOD" sheetId="19" r:id="rId3"/>
     <sheet name="PAYMENT_CHANNEL" sheetId="20" r:id="rId4"/>
     <sheet name="VIRTUAL" sheetId="21" r:id="rId5"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>GROUP_Praxis</t>
+  </si>
+  <si>
+    <t>PC_1/PC_2/PC_3/PC_4/PC_5</t>
   </si>
 </sst>
 </file>
@@ -764,7 +767,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -773,7 +776,7 @@
     <col min="2" max="2" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -844,7 +847,7 @@
         <v>54</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>65</v>
@@ -888,7 +891,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>65</v>
@@ -932,7 +935,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>65</v>
@@ -1286,7 +1289,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1384,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1551,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inputdata/NCB_530.xlsx
+++ b/inputdata/NCB_530.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="994"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="994" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="NCB_530" sheetId="18" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="PSP_AMOUNT" sheetId="28" r:id="rId12"/>
     <sheet name="ADDITIONAL_PSP_PARAMETERS" sheetId="29" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -194,9 +194,6 @@
     <t>PHP</t>
   </si>
   <si>
-    <t>{ "channelId": 8035 }</t>
-  </si>
-  <si>
     <t>Emerchantpay</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>PC_1/PC_2/PC_3/PC_4/PC_5</t>
+  </si>
+  <si>
+    <t>{ 'channelId': 8035 }</t>
   </si>
 </sst>
 </file>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -835,134 +835,134 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1304,26 +1304,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>10000116</v>
@@ -1535,10 +1535,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>100</v>
